--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.04313093603823</v>
+        <v>1.0536585</v>
       </c>
       <c r="H2">
-        <v>1.04313093603823</v>
+        <v>2.107317</v>
       </c>
       <c r="I2">
-        <v>0.03520824736731358</v>
+        <v>0.03387265878680644</v>
       </c>
       <c r="J2">
-        <v>0.03520824736731358</v>
+        <v>0.02302596602807432</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N2">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O2">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P2">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q2">
-        <v>20.00364657788206</v>
+        <v>20.62219625956125</v>
       </c>
       <c r="R2">
-        <v>20.00364657788206</v>
+        <v>82.48878503824501</v>
       </c>
       <c r="S2">
-        <v>0.001138744355903506</v>
+        <v>0.001048091511608678</v>
       </c>
       <c r="T2">
-        <v>0.001138744355903506</v>
+        <v>0.0005036218054369375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.04313093603823</v>
+        <v>1.0536585</v>
       </c>
       <c r="H3">
-        <v>1.04313093603823</v>
+        <v>2.107317</v>
       </c>
       <c r="I3">
-        <v>0.03520824736731358</v>
+        <v>0.03387265878680644</v>
       </c>
       <c r="J3">
-        <v>0.03520824736731358</v>
+        <v>0.02302596602807432</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N3">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P3">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q3">
-        <v>113.0051986348585</v>
+        <v>121.6930713257655</v>
       </c>
       <c r="R3">
-        <v>113.0051986348585</v>
+        <v>730.1584279545931</v>
       </c>
       <c r="S3">
-        <v>0.006433028679655089</v>
+        <v>0.006184863797859998</v>
       </c>
       <c r="T3">
-        <v>0.006433028679655089</v>
+        <v>0.004457863036423646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.04313093603823</v>
+        <v>1.0536585</v>
       </c>
       <c r="H4">
-        <v>1.04313093603823</v>
+        <v>2.107317</v>
       </c>
       <c r="I4">
-        <v>0.03520824736731358</v>
+        <v>0.03387265878680644</v>
       </c>
       <c r="J4">
-        <v>0.03520824736731358</v>
+        <v>0.02302596602807432</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N4">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O4">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P4">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q4">
-        <v>227.9674112450245</v>
+        <v>252.770856237868</v>
       </c>
       <c r="R4">
-        <v>227.9674112450245</v>
+        <v>1516.625137427208</v>
       </c>
       <c r="S4">
-        <v>0.01297746397760496</v>
+        <v>0.01284669127722691</v>
       </c>
       <c r="T4">
-        <v>0.01297746397760496</v>
+        <v>0.009259507089697153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.04313093603823</v>
+        <v>1.0536585</v>
       </c>
       <c r="H5">
-        <v>1.04313093603823</v>
+        <v>2.107317</v>
       </c>
       <c r="I5">
-        <v>0.03520824736731358</v>
+        <v>0.03387265878680644</v>
       </c>
       <c r="J5">
-        <v>0.03520824736731358</v>
+        <v>0.02302596602807432</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N5">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O5">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P5">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q5">
-        <v>156.0416573235075</v>
+        <v>159.2100994865055</v>
       </c>
       <c r="R5">
-        <v>156.0416573235075</v>
+        <v>955.260596919033</v>
       </c>
       <c r="S5">
-        <v>0.008882958208202191</v>
+        <v>0.008091609241513918</v>
       </c>
       <c r="T5">
-        <v>0.008882958208202191</v>
+        <v>0.005832187566589543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.04313093603823</v>
+        <v>1.0536585</v>
       </c>
       <c r="H6">
-        <v>1.04313093603823</v>
+        <v>2.107317</v>
       </c>
       <c r="I6">
-        <v>0.03520824736731358</v>
+        <v>0.03387265878680644</v>
       </c>
       <c r="J6">
-        <v>0.03520824736731358</v>
+        <v>0.02302596602807432</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N6">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O6">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P6">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q6">
-        <v>17.51215558489194</v>
+        <v>19.0969937954465</v>
       </c>
       <c r="R6">
-        <v>17.51215558489194</v>
+        <v>114.581962772679</v>
       </c>
       <c r="S6">
-        <v>0.0009969116508011791</v>
+        <v>0.0009705754344652381</v>
       </c>
       <c r="T6">
-        <v>0.0009969116508011791</v>
+        <v>0.0006995614608134892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.04313093603823</v>
+        <v>1.0536585</v>
       </c>
       <c r="H7">
-        <v>1.04313093603823</v>
+        <v>2.107317</v>
       </c>
       <c r="I7">
-        <v>0.03520824736731358</v>
+        <v>0.03387265878680644</v>
       </c>
       <c r="J7">
-        <v>0.03520824736731358</v>
+        <v>0.02302596602807432</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N7">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O7">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P7">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q7">
-        <v>83.95232601184372</v>
+        <v>93.08352619232325</v>
       </c>
       <c r="R7">
-        <v>83.95232601184372</v>
+        <v>372.334104769293</v>
       </c>
       <c r="S7">
-        <v>0.004779140495146663</v>
+        <v>0.004730827524131695</v>
       </c>
       <c r="T7">
-        <v>0.004779140495146663</v>
+        <v>0.002273225069113549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.7603027363108</v>
+        <v>27.91916</v>
       </c>
       <c r="H8">
-        <v>26.7603027363108</v>
+        <v>83.75748</v>
       </c>
       <c r="I8">
-        <v>0.9032263600029007</v>
+        <v>0.8975357578325946</v>
       </c>
       <c r="J8">
-        <v>0.9032263600029007</v>
+        <v>0.9151906851589552</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N8">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O8">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P8">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q8">
-        <v>513.1701301922398</v>
+        <v>546.4335901263</v>
       </c>
       <c r="R8">
-        <v>513.1701301922398</v>
+        <v>3278.6015407578</v>
       </c>
       <c r="S8">
-        <v>0.02921315306684208</v>
+        <v>0.0277716495498727</v>
       </c>
       <c r="T8">
-        <v>0.02921315306684208</v>
+        <v>0.02001696626394993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.7603027363108</v>
+        <v>27.91916</v>
       </c>
       <c r="H9">
-        <v>26.7603027363108</v>
+        <v>83.75748</v>
       </c>
       <c r="I9">
-        <v>0.9032263600029007</v>
+        <v>0.8975357578325946</v>
       </c>
       <c r="J9">
-        <v>0.9032263600029007</v>
+        <v>0.9151906851589552</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N9">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P9">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q9">
-        <v>2899.016050402055</v>
+        <v>3224.54412813588</v>
       </c>
       <c r="R9">
-        <v>2899.016050402055</v>
+        <v>29020.89715322292</v>
       </c>
       <c r="S9">
-        <v>0.1650318181845493</v>
+        <v>0.1638825121713164</v>
       </c>
       <c r="T9">
-        <v>0.1650318181845493</v>
+        <v>0.1771823480359114</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.7603027363108</v>
+        <v>27.91916</v>
       </c>
       <c r="H10">
-        <v>26.7603027363108</v>
+        <v>83.75748</v>
       </c>
       <c r="I10">
-        <v>0.9032263600029007</v>
+        <v>0.8975357578325946</v>
       </c>
       <c r="J10">
-        <v>0.9032263600029007</v>
+        <v>0.9151906851589552</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N10">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O10">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P10">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q10">
-        <v>5848.237002824678</v>
+        <v>6697.758314142614</v>
       </c>
       <c r="R10">
-        <v>5848.237002824678</v>
+        <v>60279.82482728353</v>
       </c>
       <c r="S10">
-        <v>0.3329216427126931</v>
+        <v>0.340403298829272</v>
       </c>
       <c r="T10">
-        <v>0.3329216427126931</v>
+        <v>0.3680286259139785</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.7603027363108</v>
+        <v>27.91916</v>
       </c>
       <c r="H11">
-        <v>26.7603027363108</v>
+        <v>83.75748</v>
       </c>
       <c r="I11">
-        <v>0.9032263600029007</v>
+        <v>0.8975357578325946</v>
       </c>
       <c r="J11">
-        <v>0.9032263600029007</v>
+        <v>0.9151906851589552</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N11">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O11">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P11">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q11">
-        <v>4003.066005608036</v>
+        <v>4218.64602352628</v>
       </c>
       <c r="R11">
-        <v>4003.066005608036</v>
+        <v>37967.81421173652</v>
       </c>
       <c r="S11">
-        <v>0.2278818915564936</v>
+        <v>0.2144062170725199</v>
       </c>
       <c r="T11">
-        <v>0.2278818915564936</v>
+        <v>0.2318062889754471</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.7603027363108</v>
+        <v>27.91916</v>
       </c>
       <c r="H12">
-        <v>26.7603027363108</v>
+        <v>83.75748</v>
       </c>
       <c r="I12">
-        <v>0.9032263600029007</v>
+        <v>0.8975357578325946</v>
       </c>
       <c r="J12">
-        <v>0.9032263600029007</v>
+        <v>0.9151906851589552</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N12">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O12">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P12">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q12">
-        <v>449.2538461153541</v>
+        <v>506.0197637983067</v>
       </c>
       <c r="R12">
-        <v>449.2538461153541</v>
+        <v>4554.17787418476</v>
       </c>
       <c r="S12">
-        <v>0.0255746010928557</v>
+        <v>0.02571767878008339</v>
       </c>
       <c r="T12">
-        <v>0.0255746010928557</v>
+        <v>0.02780478924758667</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.7603027363108</v>
+        <v>27.91916</v>
       </c>
       <c r="H13">
-        <v>26.7603027363108</v>
+        <v>83.75748</v>
       </c>
       <c r="I13">
-        <v>0.9032263600029007</v>
+        <v>0.8975357578325946</v>
       </c>
       <c r="J13">
-        <v>0.9032263600029007</v>
+        <v>0.9151906851589552</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N13">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O13">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P13">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q13">
-        <v>2153.698621983983</v>
+        <v>2466.46694458182</v>
       </c>
       <c r="R13">
-        <v>2153.698621983983</v>
+        <v>14798.80166749092</v>
       </c>
       <c r="S13">
-        <v>0.122603253389467</v>
+        <v>0.1253544014295302</v>
       </c>
       <c r="T13">
-        <v>0.122603253389467</v>
+        <v>0.09035166672208153</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.311284948127328</v>
+        <v>0.4357186666666666</v>
       </c>
       <c r="H14">
-        <v>0.311284948127328</v>
+        <v>1.307156</v>
       </c>
       <c r="I14">
-        <v>0.01050663639313893</v>
+        <v>0.01400733702906801</v>
       </c>
       <c r="J14">
-        <v>0.01050663639313893</v>
+        <v>0.01428286757492751</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N14">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O14">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P14">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q14">
-        <v>5.969369589404268</v>
+        <v>8.527882476109999</v>
       </c>
       <c r="R14">
-        <v>5.969369589404268</v>
+        <v>51.16729485666</v>
       </c>
       <c r="S14">
-        <v>0.000339817337892392</v>
+        <v>0.0004334165538291433</v>
       </c>
       <c r="T14">
-        <v>0.000339817337892392</v>
+        <v>0.0003123935623865443</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.311284948127328</v>
+        <v>0.4357186666666666</v>
       </c>
       <c r="H15">
-        <v>0.311284948127328</v>
+        <v>1.307156</v>
       </c>
       <c r="I15">
-        <v>0.01050663639313893</v>
+        <v>0.01400733702906801</v>
       </c>
       <c r="J15">
-        <v>0.01050663639313893</v>
+        <v>0.01428286757492751</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N15">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P15">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q15">
-        <v>33.72234125158868</v>
+        <v>50.323651145636</v>
       </c>
       <c r="R15">
-        <v>33.72234125158868</v>
+        <v>452.912860310724</v>
       </c>
       <c r="S15">
-        <v>0.001919706270483629</v>
+        <v>0.002557622424645646</v>
       </c>
       <c r="T15">
-        <v>0.001919706270483629</v>
+        <v>0.002765185501393186</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.311284948127328</v>
+        <v>0.4357186666666666</v>
       </c>
       <c r="H16">
-        <v>0.311284948127328</v>
+        <v>1.307156</v>
       </c>
       <c r="I16">
-        <v>0.01050663639313893</v>
+        <v>0.01400733702906801</v>
       </c>
       <c r="J16">
-        <v>0.01050663639313893</v>
+        <v>0.01428286757492751</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N16">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O16">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P16">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q16">
-        <v>68.02868300852307</v>
+        <v>104.5281563733938</v>
       </c>
       <c r="R16">
-        <v>68.02868300852307</v>
+        <v>940.7534073605441</v>
       </c>
       <c r="S16">
-        <v>0.003872657843353401</v>
+        <v>0.005312483308768075</v>
       </c>
       <c r="T16">
-        <v>0.003872657843353401</v>
+        <v>0.005743616289974489</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.311284948127328</v>
+        <v>0.4357186666666666</v>
       </c>
       <c r="H17">
-        <v>0.311284948127328</v>
+        <v>1.307156</v>
       </c>
       <c r="I17">
-        <v>0.01050663639313893</v>
+        <v>0.01400733702906801</v>
       </c>
       <c r="J17">
-        <v>0.01050663639313893</v>
+        <v>0.01428286757492751</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N17">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O17">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P17">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q17">
-        <v>46.56502604565659</v>
+        <v>65.83804170718267</v>
       </c>
       <c r="R17">
-        <v>46.56502604565659</v>
+        <v>592.5423753646439</v>
       </c>
       <c r="S17">
-        <v>0.002650799712219542</v>
+        <v>0.00334611754178429</v>
       </c>
       <c r="T17">
-        <v>0.002650799712219542</v>
+        <v>0.003617670702031502</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.311284948127328</v>
+        <v>0.4357186666666666</v>
       </c>
       <c r="H18">
-        <v>0.311284948127328</v>
+        <v>1.307156</v>
       </c>
       <c r="I18">
-        <v>0.01050663639313893</v>
+        <v>0.01400733702906801</v>
       </c>
       <c r="J18">
-        <v>0.01050663639313893</v>
+        <v>0.01428286757492751</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N18">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O18">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P18">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q18">
-        <v>5.225873621910299</v>
+        <v>7.897166561930222</v>
       </c>
       <c r="R18">
-        <v>5.225873621910299</v>
+        <v>71.07449905737199</v>
       </c>
       <c r="S18">
-        <v>0.0002974924631089656</v>
+        <v>0.0004013613843618347</v>
       </c>
       <c r="T18">
-        <v>0.0002974924631089656</v>
+        <v>0.0004339337464990398</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.311284948127328</v>
+        <v>0.4357186666666666</v>
       </c>
       <c r="H19">
-        <v>0.311284948127328</v>
+        <v>1.307156</v>
       </c>
       <c r="I19">
-        <v>0.01050663639313893</v>
+        <v>0.01400733702906801</v>
       </c>
       <c r="J19">
-        <v>0.01050663639313893</v>
+        <v>0.01428286757492751</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N19">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O19">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P19">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q19">
-        <v>25.05255528804252</v>
+        <v>38.492765845054</v>
       </c>
       <c r="R19">
-        <v>25.05255528804252</v>
+        <v>230.956595070324</v>
       </c>
       <c r="S19">
-        <v>0.001426162766080997</v>
+        <v>0.001956335815679017</v>
       </c>
       <c r="T19">
-        <v>0.001426162766080997</v>
+        <v>0.001410067772642744</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.34532936452394</v>
+        <v>0.3725246666666666</v>
       </c>
       <c r="H20">
-        <v>0.34532936452394</v>
+        <v>1.117574</v>
       </c>
       <c r="I20">
-        <v>0.01165571959310627</v>
+        <v>0.01197579758875272</v>
       </c>
       <c r="J20">
-        <v>0.01165571959310627</v>
+        <v>0.01221136685076765</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N20">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O20">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P20">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q20">
-        <v>6.622223847695694</v>
+        <v>7.291049982064999</v>
       </c>
       <c r="R20">
-        <v>6.622223847695694</v>
+        <v>43.74629989238999</v>
       </c>
       <c r="S20">
-        <v>0.0003769822667448615</v>
+        <v>0.000370556438350932</v>
       </c>
       <c r="T20">
-        <v>0.0003769822667448615</v>
+        <v>0.0002670858895882204</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.34532936452394</v>
+        <v>0.3725246666666666</v>
       </c>
       <c r="H21">
-        <v>0.34532936452394</v>
+        <v>1.117574</v>
       </c>
       <c r="I21">
-        <v>0.01165571959310627</v>
+        <v>0.01197579758875272</v>
       </c>
       <c r="J21">
-        <v>0.01165571959310627</v>
+        <v>0.01221136685076765</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N21">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P21">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q21">
-        <v>37.41046505694572</v>
+        <v>43.025013162494</v>
       </c>
       <c r="R21">
-        <v>37.41046505694572</v>
+        <v>387.2251184624459</v>
       </c>
       <c r="S21">
-        <v>0.002129659498304972</v>
+        <v>0.002186680337772181</v>
       </c>
       <c r="T21">
-        <v>0.002129659498304972</v>
+        <v>0.00236413972129875</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.34532936452394</v>
+        <v>0.3725246666666666</v>
       </c>
       <c r="H22">
-        <v>0.34532936452394</v>
+        <v>1.117574</v>
       </c>
       <c r="I22">
-        <v>0.01165571959310627</v>
+        <v>0.01197579758875272</v>
       </c>
       <c r="J22">
-        <v>0.01165571959310627</v>
+        <v>0.01221136685076765</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N22">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O22">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P22">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q22">
-        <v>75.46880121914708</v>
+        <v>89.36802480410844</v>
       </c>
       <c r="R22">
-        <v>75.46880121914708</v>
+        <v>804.3122232369759</v>
       </c>
       <c r="S22">
-        <v>0.004296200250314883</v>
+        <v>0.004541992861841411</v>
       </c>
       <c r="T22">
-        <v>0.004296200250314883</v>
+        <v>0.004910596923130788</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.34532936452394</v>
+        <v>0.3725246666666666</v>
       </c>
       <c r="H23">
-        <v>0.34532936452394</v>
+        <v>1.117574</v>
       </c>
       <c r="I23">
-        <v>0.01165571959310627</v>
+        <v>0.01197579758875272</v>
       </c>
       <c r="J23">
-        <v>0.01165571959310627</v>
+        <v>0.01221136685076765</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N23">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O23">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P23">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q23">
-        <v>51.6577205230297</v>
+        <v>56.28929035468066</v>
       </c>
       <c r="R23">
-        <v>51.6577205230297</v>
+        <v>506.6036131921259</v>
       </c>
       <c r="S23">
-        <v>0.002940710707690828</v>
+        <v>0.002860816892277613</v>
       </c>
       <c r="T23">
-        <v>0.002940710707690828</v>
+        <v>0.003092985624632525</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.34532936452394</v>
+        <v>0.3725246666666666</v>
       </c>
       <c r="H24">
-        <v>0.34532936452394</v>
+        <v>1.117574</v>
       </c>
       <c r="I24">
-        <v>0.01165571959310627</v>
+        <v>0.01197579758875272</v>
       </c>
       <c r="J24">
-        <v>0.01165571959310627</v>
+        <v>0.01221136685076765</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N24">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O24">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P24">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q24">
-        <v>5.797413680916339</v>
+        <v>6.751809289237555</v>
       </c>
       <c r="R24">
-        <v>5.797413680916339</v>
+        <v>60.76628360313799</v>
       </c>
       <c r="S24">
-        <v>0.0003300284316800917</v>
+        <v>0.0003431503567797516</v>
       </c>
       <c r="T24">
-        <v>0.0003300284316800917</v>
+        <v>0.0003709986205241898</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.34532936452394</v>
+        <v>0.3725246666666666</v>
       </c>
       <c r="H25">
-        <v>0.34532936452394</v>
+        <v>1.117574</v>
       </c>
       <c r="I25">
-        <v>0.01165571959310627</v>
+        <v>0.01197579758875272</v>
       </c>
       <c r="J25">
-        <v>0.01165571959310627</v>
+        <v>0.01221136685076765</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N25">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O25">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P25">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q25">
-        <v>27.79248739576651</v>
+        <v>32.910007907641</v>
       </c>
       <c r="R25">
-        <v>27.79248739576651</v>
+        <v>197.460047445846</v>
       </c>
       <c r="S25">
-        <v>0.001582138438370636</v>
+        <v>0.001672600701730828</v>
       </c>
       <c r="T25">
-        <v>0.001582138438370636</v>
+        <v>0.00120556007159317</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5577085597900791</v>
+        <v>0.578834</v>
       </c>
       <c r="H26">
-        <v>0.5577085597900791</v>
+        <v>1.736502</v>
       </c>
       <c r="I26">
-        <v>0.01882404236474265</v>
+        <v>0.01860816059112352</v>
       </c>
       <c r="J26">
-        <v>0.01882404236474265</v>
+        <v>0.01897419138159238</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N26">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O26">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P26">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q26">
-        <v>10.6949228884642</v>
+        <v>11.328934706745</v>
       </c>
       <c r="R26">
-        <v>10.6949228884642</v>
+        <v>67.97360824047</v>
       </c>
       <c r="S26">
-        <v>0.000608828146840379</v>
+        <v>0.0005757757395118984</v>
       </c>
       <c r="T26">
-        <v>0.000608828146840379</v>
+        <v>0.0004150017640368549</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5577085597900791</v>
+        <v>0.578834</v>
       </c>
       <c r="H27">
-        <v>0.5577085597900791</v>
+        <v>1.736502</v>
       </c>
       <c r="I27">
-        <v>0.01882404236474265</v>
+        <v>0.01860816059112352</v>
       </c>
       <c r="J27">
-        <v>0.01882404236474265</v>
+        <v>0.01897419138159238</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N27">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P27">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q27">
-        <v>60.41807830836775</v>
+        <v>66.852862903662</v>
       </c>
       <c r="R27">
-        <v>60.41807830836775</v>
+        <v>601.6757661329581</v>
       </c>
       <c r="S27">
-        <v>0.003439410179555086</v>
+        <v>0.003397694273401196</v>
       </c>
       <c r="T27">
-        <v>0.003439410179555086</v>
+        <v>0.003673433127752366</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5577085597900791</v>
+        <v>0.578834</v>
       </c>
       <c r="H28">
-        <v>0.5577085597900791</v>
+        <v>1.736502</v>
       </c>
       <c r="I28">
-        <v>0.01882404236474265</v>
+        <v>0.01860816059112352</v>
       </c>
       <c r="J28">
-        <v>0.01882404236474265</v>
+        <v>0.01897419138159238</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N28">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O28">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P28">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q28">
-        <v>121.8824715211741</v>
+        <v>138.8612779184053</v>
       </c>
       <c r="R28">
-        <v>121.8824715211741</v>
+        <v>1249.751501265648</v>
       </c>
       <c r="S28">
-        <v>0.006938383758577779</v>
+        <v>0.007057411579522551</v>
       </c>
       <c r="T28">
-        <v>0.006938383758577779</v>
+        <v>0.007630153688445205</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.5577085597900791</v>
+        <v>0.578834</v>
       </c>
       <c r="H29">
-        <v>0.5577085597900791</v>
+        <v>1.736502</v>
       </c>
       <c r="I29">
-        <v>0.01882404236474265</v>
+        <v>0.01860816059112352</v>
       </c>
       <c r="J29">
-        <v>0.01882404236474265</v>
+        <v>0.01897419138159238</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N29">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O29">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P29">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q29">
-        <v>83.42746338601636</v>
+        <v>87.46308099462199</v>
       </c>
       <c r="R29">
-        <v>83.42746338601636</v>
+        <v>787.167728951598</v>
       </c>
       <c r="S29">
-        <v>0.004749261725270452</v>
+        <v>0.004445177012952932</v>
       </c>
       <c r="T29">
-        <v>0.004749261725270452</v>
+        <v>0.004805924013215797</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5577085597900791</v>
+        <v>0.578834</v>
       </c>
       <c r="H30">
-        <v>0.5577085597900791</v>
+        <v>1.736502</v>
       </c>
       <c r="I30">
-        <v>0.01882404236474265</v>
+        <v>0.01860816059112352</v>
       </c>
       <c r="J30">
-        <v>0.01882404236474265</v>
+        <v>0.01897419138159238</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N30">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O30">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P30">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q30">
-        <v>9.36285056137184</v>
+        <v>10.49105503025267</v>
       </c>
       <c r="R30">
-        <v>9.36285056137184</v>
+        <v>94.41949527227401</v>
       </c>
       <c r="S30">
-        <v>0.0005329974807552819</v>
+        <v>0.0005331917894016435</v>
       </c>
       <c r="T30">
-        <v>0.0005329974807552819</v>
+        <v>0.0005764628083129142</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.5577085597900791</v>
+        <v>0.578834</v>
       </c>
       <c r="H31">
-        <v>0.5577085597900791</v>
+        <v>1.736502</v>
       </c>
       <c r="I31">
-        <v>0.01882404236474265</v>
+        <v>0.01860816059112352</v>
       </c>
       <c r="J31">
-        <v>0.01882404236474265</v>
+        <v>0.01897419138159238</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N31">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O31">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P31">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q31">
-        <v>44.88499881799748</v>
+        <v>51.136027280193</v>
       </c>
       <c r="R31">
-        <v>44.88499881799748</v>
+        <v>306.816163681158</v>
       </c>
       <c r="S31">
-        <v>0.002555161073743677</v>
+        <v>0.002598910196333295</v>
       </c>
       <c r="T31">
-        <v>0.002555161073743677</v>
+        <v>0.001873215979829241</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.609703327201025</v>
+        <v>0.746564</v>
       </c>
       <c r="H32">
-        <v>0.609703327201025</v>
+        <v>1.493128</v>
       </c>
       <c r="I32">
-        <v>0.02057899427879789</v>
+        <v>0.02400028817165463</v>
       </c>
       <c r="J32">
-        <v>0.02057899427879789</v>
+        <v>0.01631492300568284</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N32">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O32">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P32">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q32">
-        <v>11.69200284770493</v>
+        <v>14.61174500877</v>
       </c>
       <c r="R32">
-        <v>11.69200284770493</v>
+        <v>58.44698003508</v>
       </c>
       <c r="S32">
-        <v>0.0006655887565396779</v>
+        <v>0.0007426195406506199</v>
       </c>
       <c r="T32">
-        <v>0.0006655887565396779</v>
+        <v>0.000356838491365297</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.609703327201025</v>
+        <v>0.746564</v>
       </c>
       <c r="H33">
-        <v>0.609703327201025</v>
+        <v>1.493128</v>
       </c>
       <c r="I33">
-        <v>0.02057899427879789</v>
+        <v>0.02400028817165463</v>
       </c>
       <c r="J33">
-        <v>0.02057899427879789</v>
+        <v>0.01631492300568284</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N33">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P33">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q33">
-        <v>66.05081224066086</v>
+        <v>86.22496387705201</v>
       </c>
       <c r="R33">
-        <v>66.05081224066086</v>
+        <v>517.349783262312</v>
       </c>
       <c r="S33">
-        <v>0.003760063913799578</v>
+        <v>0.004382251608453357</v>
       </c>
       <c r="T33">
-        <v>0.003760063913799578</v>
+        <v>0.003158594610990736</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.609703327201025</v>
+        <v>0.746564</v>
       </c>
       <c r="H34">
-        <v>0.609703327201025</v>
+        <v>1.493128</v>
       </c>
       <c r="I34">
-        <v>0.02057899427879789</v>
+        <v>0.02400028817165463</v>
       </c>
       <c r="J34">
-        <v>0.02057899427879789</v>
+        <v>0.01631492300568284</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N34">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O34">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P34">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q34">
-        <v>133.2454865708266</v>
+        <v>179.0994155282453</v>
       </c>
       <c r="R34">
-        <v>133.2454865708266</v>
+        <v>1074.596493169472</v>
       </c>
       <c r="S34">
-        <v>0.007585244279906206</v>
+        <v>0.009102453239537888</v>
       </c>
       <c r="T34">
-        <v>0.007585244279906206</v>
+        <v>0.006560773391865262</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.609703327201025</v>
+        <v>0.746564</v>
       </c>
       <c r="H35">
-        <v>0.609703327201025</v>
+        <v>1.493128</v>
       </c>
       <c r="I35">
-        <v>0.02057899427879789</v>
+        <v>0.02400028817165463</v>
       </c>
       <c r="J35">
-        <v>0.02057899427879789</v>
+        <v>0.01631492300568284</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N35">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O35">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P35">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q35">
-        <v>91.20534571953097</v>
+        <v>112.807450149212</v>
       </c>
       <c r="R35">
-        <v>91.20534571953097</v>
+        <v>676.8447008952719</v>
       </c>
       <c r="S35">
-        <v>0.005192031975868886</v>
+        <v>0.005733265722984816</v>
       </c>
       <c r="T35">
-        <v>0.005192031975868886</v>
+        <v>0.004132364782767239</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.609703327201025</v>
+        <v>0.746564</v>
       </c>
       <c r="H36">
-        <v>0.609703327201025</v>
+        <v>1.493128</v>
       </c>
       <c r="I36">
-        <v>0.02057899427879789</v>
+        <v>0.02400028817165463</v>
       </c>
       <c r="J36">
-        <v>0.02057899427879789</v>
+        <v>0.01631492300568284</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N36">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O36">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P36">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q36">
-        <v>10.23574237681253</v>
+        <v>13.53107109742267</v>
       </c>
       <c r="R36">
-        <v>10.23574237681253</v>
+        <v>81.18642658453601</v>
       </c>
       <c r="S36">
-        <v>0.000582688452062809</v>
+        <v>0.0006876959457510247</v>
       </c>
       <c r="T36">
-        <v>0.000582688452062809</v>
+        <v>0.000495670468591827</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.609703327201025</v>
+        <v>0.746564</v>
       </c>
       <c r="H37">
-        <v>0.609703327201025</v>
+        <v>1.493128</v>
       </c>
       <c r="I37">
-        <v>0.02057899427879789</v>
+        <v>0.02400028817165463</v>
       </c>
       <c r="J37">
-        <v>0.02057899427879789</v>
+        <v>0.01631492300568284</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N37">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O37">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P37">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q37">
-        <v>49.06959493511786</v>
+        <v>65.953826261778</v>
       </c>
       <c r="R37">
-        <v>49.06959493511786</v>
+        <v>263.815305047112</v>
       </c>
       <c r="S37">
-        <v>0.002793376900620733</v>
+        <v>0.003352002114276926</v>
       </c>
       <c r="T37">
-        <v>0.002793376900620733</v>
+        <v>0.001610681260102479</v>
       </c>
     </row>
   </sheetData>
